--- a/data/company.xlsx
+++ b/data/company.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Nintendo</t>
   </si>
@@ -104,24 +100,39 @@
   </si>
   <si>
     <t>Hasbro Interactive</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Itanlian</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,15 +166,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -205,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +308,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,158 +501,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>10001</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>10002</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10003</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>10004</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>10005</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>10006</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>10007</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>10008</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>10009</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10010</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10011</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10012</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10013</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>10014</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>10015</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10016</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>10017</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>10018</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>10019</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>10020</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>10021</v>
+      </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>10022</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>10023</v>
+      </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>10024</v>
+      </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>10025</v>
+      </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>10026</v>
+      </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>10027</v>
+      </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>10028</v>
+      </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>28</v>
+      <c r="C28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -608,12 +829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,12 +843,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
